--- a/product/抽奖结果.xlsx
+++ b/product/抽奖结果.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,28 +402,46 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>人才辈出奖</v>
+        <v>初一1班</v>
+      </c>
+      <c r="B3" t="str">
+        <v>夏赢</v>
+      </c>
+      <c r="C3" t="str">
+        <v>学号：41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>星光璀璨奖</v>
+        <v>预备4班</v>
+      </c>
+      <c r="B4" t="str">
+        <v>陆熠皓</v>
+      </c>
+      <c r="C4" t="str">
+        <v>学号：24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>真我风采奖</v>
+        <v>预备4班</v>
+      </c>
+      <c r="B5" t="str">
+        <v>陈以恒</v>
+      </c>
+      <c r="C5" t="str">
+        <v>学号：17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>初一1班</v>
+        <v>预备4班</v>
       </c>
       <c r="B6" t="str">
-        <v>周诗滔</v>
+        <v>刘天恒</v>
       </c>
       <c r="C6" t="str">
-        <v>学号：37</v>
+        <v>学号：23</v>
       </c>
     </row>
     <row r="7">
@@ -431,216 +449,210 @@
         <v>初二1班</v>
       </c>
       <c r="B7" t="str">
-        <v>范翊萱</v>
+        <v>林先鹏</v>
       </c>
       <c r="C7" t="str">
-        <v>学号：2</v>
+        <v>学号：22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>预备3班</v>
+        <v>初一1班</v>
       </c>
       <c r="B8" t="str">
-        <v>周语涵</v>
+        <v>夏赢</v>
       </c>
       <c r="C8" t="str">
-        <v>学号：15</v>
+        <v>学号：41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>初二2班</v>
+        <v>预备4班</v>
       </c>
       <c r="B9" t="str">
-        <v>李思萱</v>
+        <v>陆熠皓</v>
       </c>
       <c r="C9" t="str">
-        <v>学号：8</v>
+        <v>学号：24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>初二2班</v>
+        <v>预备4班</v>
       </c>
       <c r="B10" t="str">
-        <v>江欣妍</v>
+        <v>陈以恒</v>
       </c>
       <c r="C10" t="str">
-        <v>学号：5</v>
+        <v>学号：17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>初二1班</v>
+        <v>预备4班</v>
       </c>
       <c r="B11" t="str">
-        <v>施子暄</v>
+        <v>刘天恒</v>
       </c>
       <c r="C11" t="str">
-        <v>学号：8</v>
+        <v>学号：23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>预备2班</v>
+        <v>初二1班</v>
       </c>
       <c r="B12" t="str">
-        <v>张甯麒</v>
+        <v>林先鹏</v>
       </c>
       <c r="C12" t="str">
-        <v>学号：28</v>
+        <v>学号：22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>初一1班</v>
-      </c>
-      <c r="B13" t="str">
-        <v>王睿康</v>
-      </c>
-      <c r="C13" t="str">
-        <v>学号：28</v>
+        <v>人才辈出奖</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>预备1班</v>
+        <v>预备3班</v>
       </c>
       <c r="B14" t="str">
-        <v>唐思韵</v>
+        <v>高鑫涛</v>
       </c>
       <c r="C14" t="str">
-        <v>学号：12</v>
+        <v>学号：20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>初一1班</v>
+        <v>初二1班</v>
       </c>
       <c r="B15" t="str">
-        <v>周丹凤</v>
+        <v>蔡嘉谦</v>
       </c>
       <c r="C15" t="str">
-        <v>学号：18</v>
+        <v>学号：14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>初二2班</v>
+        <v>预备3班</v>
       </c>
       <c r="B16" t="str">
-        <v>郭梓萱</v>
+        <v>周语涵</v>
       </c>
       <c r="C16" t="str">
-        <v>学号：3</v>
+        <v>学号：15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>初一1班</v>
+        <v>预备1班</v>
       </c>
       <c r="B17" t="str">
-        <v>汤嘉呦</v>
+        <v>戴明远</v>
       </c>
       <c r="C17" t="str">
-        <v>学号：9</v>
+        <v>学号：19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>初一2班</v>
+        <v>初一1班</v>
       </c>
       <c r="B18" t="str">
-        <v>周诺</v>
+        <v>杨明瀚</v>
       </c>
       <c r="C18" t="str">
-        <v>学号：40</v>
+        <v>学号：31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>初一1班</v>
+        <v>预备3班</v>
       </c>
       <c r="B19" t="str">
-        <v>姜潘言</v>
+        <v>邹誉晨</v>
       </c>
       <c r="C19" t="str">
-        <v>学号：3</v>
+        <v>学号：16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>预备2班</v>
+        <v>预备3班</v>
       </c>
       <c r="B20" t="str">
-        <v>王智鸿</v>
+        <v>王雪菲</v>
       </c>
       <c r="C20" t="str">
-        <v>学号：26</v>
+        <v>学号：11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>初二2班</v>
+        <v>预备2班</v>
       </c>
       <c r="B21" t="str">
-        <v>刘谌阳</v>
+        <v>于嘉淇</v>
       </c>
       <c r="C21" t="str">
-        <v>学号：18</v>
+        <v>学号：14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>预备3班</v>
+        <v>预备2班</v>
       </c>
       <c r="B22" t="str">
-        <v>邹誉晨</v>
+        <v>钟鸿毅</v>
       </c>
       <c r="C22" t="str">
-        <v>学号：16</v>
+        <v>学号：30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>初一2班</v>
+        <v>初二1班</v>
       </c>
       <c r="B23" t="str">
-        <v>杨邦朔</v>
+        <v>宫晟尧</v>
       </c>
       <c r="C23" t="str">
-        <v>学号：35</v>
+        <v>学号：19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>预备4班</v>
+        <v>预备2班</v>
       </c>
       <c r="B24" t="str">
-        <v>李梓琪</v>
+        <v>黄沁怡</v>
       </c>
       <c r="C24" t="str">
-        <v>学号：8</v>
+        <v>学号：4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>预备4班</v>
+        <v>预备2班</v>
       </c>
       <c r="B25" t="str">
-        <v>陈以恒</v>
+        <v>李子晗</v>
       </c>
       <c r="C25" t="str">
-        <v>学号：17</v>
+        <v>学号：5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>预备3班</v>
+        <v>预备1班</v>
       </c>
       <c r="B26" t="str">
-        <v>曹若琦</v>
+        <v>方舟童</v>
       </c>
       <c r="C26" t="str">
         <v>学号：3</v>
@@ -651,164 +663,158 @@
         <v>初二2班</v>
       </c>
       <c r="B27" t="str">
-        <v>薛茹澄</v>
+        <v>徐浩天</v>
       </c>
       <c r="C27" t="str">
-        <v>学号：14</v>
+        <v>学号：26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>初一1班</v>
+        <v>预备3班</v>
       </c>
       <c r="B28" t="str">
-        <v>吕心一</v>
+        <v>包迟秋</v>
       </c>
       <c r="C28" t="str">
-        <v>学号：24</v>
+        <v>学号：17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>预备1班</v>
-      </c>
-      <c r="B29" t="str">
-        <v>高    昕</v>
-      </c>
-      <c r="C29" t="str">
-        <v>学号：4</v>
+        <v>星光璀璨奖</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>预备3班</v>
+        <v>初二2班</v>
       </c>
       <c r="B30" t="str">
-        <v>包迟秋</v>
+        <v>王智强</v>
       </c>
       <c r="C30" t="str">
-        <v>学号：17</v>
+        <v>学号：24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>初一1班</v>
+        <v>预备4班</v>
       </c>
       <c r="B31" t="str">
-        <v>高源</v>
+        <v>蔡怡晨</v>
       </c>
       <c r="C31" t="str">
-        <v>学号：22</v>
+        <v>学号：1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>预备2班</v>
+        <v>初一2班</v>
       </c>
       <c r="B32" t="str">
-        <v>韩雨宸</v>
+        <v>高胜蓝</v>
       </c>
       <c r="C32" t="str">
-        <v>学号：20</v>
+        <v>学号：2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>初二1班</v>
+        <v>初二2班</v>
       </c>
       <c r="B33" t="str">
-        <v>王力贤</v>
+        <v>李思萱</v>
       </c>
       <c r="C33" t="str">
-        <v>学号：24</v>
+        <v>学号：8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>预备4班</v>
+        <v>初一1班</v>
       </c>
       <c r="B34" t="str">
-        <v>钟欣玥</v>
+        <v>刘子萌</v>
       </c>
       <c r="C34" t="str">
-        <v>学号：15</v>
+        <v>学号：8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>初二1班</v>
+        <v>预备2班</v>
       </c>
       <c r="B35" t="str">
-        <v>顾唯奕</v>
+        <v>王欣月</v>
       </c>
       <c r="C35" t="str">
-        <v>学号：20</v>
+        <v>学号：10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>初一1班</v>
+        <v>预备3班</v>
       </c>
       <c r="B36" t="str">
-        <v>祝永卓</v>
+        <v>邹锦润</v>
       </c>
       <c r="C36" t="str">
-        <v>学号：39</v>
+        <v>学号：31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>预备2班</v>
+        <v>初二1班</v>
       </c>
       <c r="B37" t="str">
-        <v>许    优</v>
+        <v>潘欣辰</v>
       </c>
       <c r="C37" t="str">
-        <v>学号：12</v>
+        <v>学号：7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>初一2班</v>
+        <v>初二1班</v>
       </c>
       <c r="B38" t="str">
-        <v>曹启恒</v>
+        <v>马欣语</v>
       </c>
       <c r="C38" t="str">
-        <v>学号：22</v>
+        <v>学号：6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>初一2班</v>
+        <v>预备4班</v>
       </c>
       <c r="B39" t="str">
-        <v>陆亦凡</v>
+        <v>张宇皓</v>
       </c>
       <c r="C39" t="str">
-        <v>学号：8</v>
+        <v>学号：29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>初一2班</v>
+        <v>初二2班</v>
       </c>
       <c r="B40" t="str">
-        <v>李瑜</v>
+        <v>薛茹澄</v>
       </c>
       <c r="C40" t="str">
-        <v>学号：27</v>
+        <v>学号：14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>预备4班</v>
+        <v>初一2班</v>
       </c>
       <c r="B41" t="str">
-        <v>刘庭羽</v>
+        <v>龚宸星</v>
       </c>
       <c r="C41" t="str">
-        <v>学号：9</v>
+        <v>学号：3</v>
       </c>
     </row>
     <row r="42">
@@ -816,48 +822,702 @@
         <v>预备2班</v>
       </c>
       <c r="B42" t="str">
-        <v>龚怡晨</v>
+        <v>何    奕</v>
       </c>
       <c r="C42" t="str">
-        <v>学号：2</v>
+        <v>学号：3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>初二2班</v>
+        <v>初二1班</v>
       </c>
       <c r="B43" t="str">
-        <v>刘煜辉</v>
+        <v>张丁心</v>
       </c>
       <c r="C43" t="str">
-        <v>学号：19</v>
+        <v>学号：27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>预备3班</v>
+        <v>预备2班</v>
       </c>
       <c r="B44" t="str">
-        <v>刘思成</v>
+        <v>姚茗玥</v>
       </c>
       <c r="C44" t="str">
-        <v>学号：23</v>
+        <v>学号：13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
+        <v>预备2班</v>
+      </c>
+      <c r="B45" t="str">
+        <v>冯志尧</v>
+      </c>
+      <c r="C45" t="str">
+        <v>学号：19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B46" t="str">
+        <v>黄昕悦</v>
+      </c>
+      <c r="C46" t="str">
+        <v>学号：6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>预备3班</v>
+      </c>
+      <c r="B47" t="str">
+        <v>张家鸣</v>
+      </c>
+      <c r="C47" t="str">
+        <v>学号：30</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>初二2班</v>
+      </c>
+      <c r="B48" t="str">
+        <v>徐睿</v>
+      </c>
+      <c r="C48" t="str">
+        <v>学号：27</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B49" t="str">
+        <v>李米卿</v>
+      </c>
+      <c r="C49" t="str">
+        <v>学号：26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>预备3班</v>
+      </c>
+      <c r="B50" t="str">
+        <v>储亦玮</v>
+      </c>
+      <c r="C50" t="str">
+        <v>学号：19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>初一1班</v>
+      </c>
+      <c r="B51" t="str">
+        <v>孙昊然</v>
+      </c>
+      <c r="C51" t="str">
+        <v>学号：27</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>初一1班</v>
+      </c>
+      <c r="B52" t="str">
+        <v>李娜</v>
+      </c>
+      <c r="C52" t="str">
+        <v>学号：5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>预备2班</v>
+      </c>
+      <c r="B53" t="str">
+        <v>叶思源</v>
+      </c>
+      <c r="C53" t="str">
+        <v>学号：27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B54" t="str">
+        <v>杨桢</v>
+      </c>
+      <c r="C54" t="str">
+        <v>学号：13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>真我风采奖</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>预备3班</v>
+      </c>
+      <c r="B56" t="str">
+        <v>詹昕睿</v>
+      </c>
+      <c r="C56" t="str">
+        <v>学号：29</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B57" t="str">
+        <v>邓子宸</v>
+      </c>
+      <c r="C57" t="str">
+        <v>学号：24</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
         <v>初二1班</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B58" t="str">
+        <v>高新童</v>
+      </c>
+      <c r="C58" t="str">
+        <v>学号：18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>预备1班</v>
+      </c>
+      <c r="B59" t="str">
+        <v>严梓芸</v>
+      </c>
+      <c r="C59" t="str">
+        <v>学号：15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B60" t="str">
+        <v>曲佳一</v>
+      </c>
+      <c r="C60" t="str">
+        <v>学号：9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>初二2班</v>
+      </c>
+      <c r="B61" t="str">
+        <v>袁宇轩</v>
+      </c>
+      <c r="C61" t="str">
+        <v>学号：28</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B62" t="str">
+        <v>聂周皓</v>
+      </c>
+      <c r="C62" t="str">
+        <v>学号：31</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>初二2班</v>
+      </c>
+      <c r="B63" t="str">
+        <v>贾一楠</v>
+      </c>
+      <c r="C63" t="str">
+        <v>学号：7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>预备3班</v>
+      </c>
+      <c r="B64" t="str">
+        <v>袁利惟</v>
+      </c>
+      <c r="C64" t="str">
+        <v>学号：14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B65" t="str">
+        <v>李慧文</v>
+      </c>
+      <c r="C65" t="str">
+        <v>学号：7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>预备1班</v>
+      </c>
+      <c r="B66" t="str">
+        <v>戴致宇</v>
+      </c>
+      <c r="C66" t="str">
+        <v>学号：20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>初二2班</v>
+      </c>
+      <c r="B67" t="str">
+        <v>刘煜辉</v>
+      </c>
+      <c r="C67" t="str">
+        <v>学号：19</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>初二1班</v>
+      </c>
+      <c r="B68" t="str">
+        <v>顾静宜</v>
+      </c>
+      <c r="C68" t="str">
+        <v>学号：4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>初一1班</v>
+      </c>
+      <c r="B69" t="str">
+        <v>汤嘉呦</v>
+      </c>
+      <c r="C69" t="str">
+        <v>学号：9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>预备2班</v>
+      </c>
+      <c r="B70" t="str">
+        <v>张梓屹</v>
+      </c>
+      <c r="C70" t="str">
+        <v>学号：29</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>预备1班</v>
+      </c>
+      <c r="B71" t="str">
+        <v>高    昕</v>
+      </c>
+      <c r="C71" t="str">
+        <v>学号：4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>初一1班</v>
+      </c>
+      <c r="B72" t="str">
+        <v>潘重宇</v>
+      </c>
+      <c r="C72" t="str">
+        <v>学号：25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B73" t="str">
+        <v>于海悦</v>
+      </c>
+      <c r="C73" t="str">
+        <v>学号：16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B74" t="str">
+        <v>曾之熙</v>
+      </c>
+      <c r="C74" t="str">
+        <v>学号：37</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>预备2班</v>
+      </c>
+      <c r="B75" t="str">
+        <v>申珂睿</v>
+      </c>
+      <c r="C75" t="str">
+        <v>学号：6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>预备1班</v>
+      </c>
+      <c r="B76" t="str">
+        <v>秦梓瑜</v>
+      </c>
+      <c r="C76" t="str">
+        <v>学号：9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>预备3班</v>
+      </c>
+      <c r="B77" t="str">
+        <v>陈    柔</v>
+      </c>
+      <c r="C77" t="str">
+        <v>学号：4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B78" t="str">
+        <v>焦雅坤</v>
+      </c>
+      <c r="C78" t="str">
+        <v>学号：42</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>初二1班</v>
+      </c>
+      <c r="B79" t="str">
         <v>单纯沛</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C79" t="str">
         <v>学号：16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>初一1班</v>
+      </c>
+      <c r="B80" t="str">
+        <v>朱墨卿</v>
+      </c>
+      <c r="C80" t="str">
+        <v>学号：38</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>初二1班</v>
+      </c>
+      <c r="B81" t="str">
+        <v>付同骋</v>
+      </c>
+      <c r="C81" t="str">
+        <v>学号：17</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>初二2班</v>
+      </c>
+      <c r="B82" t="str">
+        <v>龚启慧</v>
+      </c>
+      <c r="C82" t="str">
+        <v>学号：1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>预备2班</v>
+      </c>
+      <c r="B83" t="str">
+        <v>王智鸿</v>
+      </c>
+      <c r="C83" t="str">
+        <v>学号：26</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>预备4班</v>
+      </c>
+      <c r="B84" t="str">
+        <v>倪张晨</v>
+      </c>
+      <c r="C84" t="str">
+        <v>学号：25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>初一1班</v>
+      </c>
+      <c r="B85" t="str">
+        <v>李玥瑶</v>
+      </c>
+      <c r="C85" t="str">
+        <v>学号：6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B86" t="str">
+        <v>陆亦凡</v>
+      </c>
+      <c r="C86" t="str">
+        <v>学号：8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B87" t="str">
+        <v>魏毅</v>
+      </c>
+      <c r="C87" t="str">
+        <v>学号：33</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>预备3班</v>
+      </c>
+      <c r="B88" t="str">
+        <v>蒋瑞希</v>
+      </c>
+      <c r="C88" t="str">
+        <v>学号：6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>初二1班</v>
+      </c>
+      <c r="B89" t="str">
+        <v>范翊萱</v>
+      </c>
+      <c r="C89" t="str">
+        <v>学号：2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>预备2班</v>
+      </c>
+      <c r="B90" t="str">
+        <v>许    优</v>
+      </c>
+      <c r="C90" t="str">
+        <v>学号：12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B91" t="str">
+        <v>周诺</v>
+      </c>
+      <c r="C91" t="str">
+        <v>学号：40</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B92" t="str">
+        <v>叶依轩</v>
+      </c>
+      <c r="C92" t="str">
+        <v>学号：14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>预备1班</v>
+      </c>
+      <c r="B93" t="str">
+        <v>葛玖容</v>
+      </c>
+      <c r="C93" t="str">
+        <v>学号：22</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>初一2班</v>
+      </c>
+      <c r="B94" t="str">
+        <v>潘宇梵</v>
+      </c>
+      <c r="C94" t="str">
+        <v>学号：32</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>初二1班</v>
+      </c>
+      <c r="B95" t="str">
+        <v>毕景行</v>
+      </c>
+      <c r="C95" t="str">
+        <v>学号：13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>初二1班</v>
+      </c>
+      <c r="B96" t="str">
+        <v>陈柏廷</v>
+      </c>
+      <c r="C96" t="str">
+        <v>学号：15</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>预备4班</v>
+      </c>
+      <c r="B97" t="str">
+        <v>黄心怡</v>
+      </c>
+      <c r="C97" t="str">
+        <v>学号：5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>预备4班</v>
+      </c>
+      <c r="B98" t="str">
+        <v>李泽宸</v>
+      </c>
+      <c r="C98" t="str">
+        <v>学号：22</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>预备2班</v>
+      </c>
+      <c r="B99" t="str">
+        <v>王欣贝</v>
+      </c>
+      <c r="C99" t="str">
+        <v>学号：9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>预备3班</v>
+      </c>
+      <c r="B100" t="str">
+        <v>吴芳菲</v>
+      </c>
+      <c r="C100" t="str">
+        <v>学号：13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>预备4班</v>
+      </c>
+      <c r="B101" t="str">
+        <v>夏浩飏</v>
+      </c>
+      <c r="C101" t="str">
+        <v>学号：27</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>初二1班</v>
+      </c>
+      <c r="B102" t="str">
+        <v>单文玺</v>
+      </c>
+      <c r="C102" t="str">
+        <v>学号：30</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>预备3班</v>
+      </c>
+      <c r="B103" t="str">
+        <v>俞谷璋</v>
+      </c>
+      <c r="C103" t="str">
+        <v>学号：28</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>初二1班</v>
+      </c>
+      <c r="B104" t="str">
+        <v>黄纬达</v>
+      </c>
+      <c r="C104" t="str">
+        <v>学号：21</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>预备3班</v>
+      </c>
+      <c r="B105" t="str">
+        <v>钱亿凡</v>
+      </c>
+      <c r="C105" t="str">
+        <v>学号：24</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C105"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/product/抽奖结果.xlsx
+++ b/product/抽奖结果.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,43 +405,43 @@
         <v>初一1班</v>
       </c>
       <c r="B3" t="str">
-        <v>夏赢</v>
+        <v>范远哲</v>
       </c>
       <c r="C3" t="str">
-        <v>学号：41</v>
+        <v>学号：21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>预备4班</v>
+        <v>预备1班</v>
       </c>
       <c r="B4" t="str">
-        <v>陆熠皓</v>
+        <v>张浚哲</v>
       </c>
       <c r="C4" t="str">
-        <v>学号：24</v>
+        <v>学号：30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>预备4班</v>
+        <v>初一2班</v>
       </c>
       <c r="B5" t="str">
-        <v>陈以恒</v>
+        <v>沈怡冰</v>
       </c>
       <c r="C5" t="str">
-        <v>学号：17</v>
+        <v>学号：10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>预备4班</v>
+        <v>初一2班</v>
       </c>
       <c r="B6" t="str">
-        <v>刘天恒</v>
+        <v>陆圣宇</v>
       </c>
       <c r="C6" t="str">
-        <v>学号：23</v>
+        <v>学号：29</v>
       </c>
     </row>
     <row r="7">
@@ -449,21 +449,15 @@
         <v>初二1班</v>
       </c>
       <c r="B7" t="str">
-        <v>林先鹏</v>
+        <v>王悠然</v>
       </c>
       <c r="C7" t="str">
-        <v>学号：22</v>
+        <v>学号：9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>初一1班</v>
-      </c>
-      <c r="B8" t="str">
-        <v>夏赢</v>
-      </c>
-      <c r="C8" t="str">
-        <v>学号：41</v>
+        <v>人才辈出奖</v>
       </c>
     </row>
     <row r="9">
@@ -471,133 +465,139 @@
         <v>预备4班</v>
       </c>
       <c r="B9" t="str">
-        <v>陆熠皓</v>
+        <v>李泽宸</v>
       </c>
       <c r="C9" t="str">
-        <v>学号：24</v>
+        <v>学号：22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>预备4班</v>
+        <v>初一2班</v>
       </c>
       <c r="B10" t="str">
-        <v>陈以恒</v>
+        <v>李米卿</v>
       </c>
       <c r="C10" t="str">
-        <v>学号：17</v>
+        <v>学号：26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>预备4班</v>
+        <v>预备3班</v>
       </c>
       <c r="B11" t="str">
-        <v>刘天恒</v>
+        <v>王天禹</v>
       </c>
       <c r="C11" t="str">
-        <v>学号：23</v>
+        <v>学号：27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>初二1班</v>
+        <v>初一1班</v>
       </c>
       <c r="B12" t="str">
-        <v>林先鹏</v>
+        <v>张云皓</v>
       </c>
       <c r="C12" t="str">
-        <v>学号：22</v>
+        <v>学号：35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>人才辈出奖</v>
+        <v>预备3班</v>
+      </c>
+      <c r="B13" t="str">
+        <v>储亦玮</v>
+      </c>
+      <c r="C13" t="str">
+        <v>学号：19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>预备3班</v>
+        <v>预备2班</v>
       </c>
       <c r="B14" t="str">
-        <v>高鑫涛</v>
+        <v>曾煜诚</v>
       </c>
       <c r="C14" t="str">
-        <v>学号：20</v>
+        <v>学号：18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>初二1班</v>
+        <v>预备2班</v>
       </c>
       <c r="B15" t="str">
-        <v>蔡嘉谦</v>
+        <v>程    紫</v>
       </c>
       <c r="C15" t="str">
-        <v>学号：14</v>
+        <v>学号：1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>预备3班</v>
+        <v>预备2班</v>
       </c>
       <c r="B16" t="str">
-        <v>周语涵</v>
+        <v>孙可轩</v>
       </c>
       <c r="C16" t="str">
-        <v>学号：15</v>
+        <v>学号：24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>预备1班</v>
+        <v>预备3班</v>
       </c>
       <c r="B17" t="str">
-        <v>戴明远</v>
+        <v>包迟秋</v>
       </c>
       <c r="C17" t="str">
-        <v>学号：19</v>
+        <v>学号：17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>初一1班</v>
+        <v>预备4班</v>
       </c>
       <c r="B18" t="str">
-        <v>杨明瀚</v>
+        <v>屠琪航</v>
       </c>
       <c r="C18" t="str">
-        <v>学号：31</v>
+        <v>学号：26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>预备3班</v>
+        <v>初二2班</v>
       </c>
       <c r="B19" t="str">
-        <v>邹誉晨</v>
+        <v>李思远</v>
       </c>
       <c r="C19" t="str">
-        <v>学号：16</v>
+        <v>学号：31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>预备3班</v>
+        <v>预备1班</v>
       </c>
       <c r="B20" t="str">
-        <v>王雪菲</v>
+        <v>葛玖容</v>
       </c>
       <c r="C20" t="str">
-        <v>学号：11</v>
+        <v>学号：22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>预备2班</v>
+        <v>预备4班</v>
       </c>
       <c r="B21" t="str">
-        <v>于嘉淇</v>
+        <v>章路晗</v>
       </c>
       <c r="C21" t="str">
         <v>学号：14</v>
@@ -605,68 +605,62 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>预备2班</v>
+        <v>初一2班</v>
       </c>
       <c r="B22" t="str">
-        <v>钟鸿毅</v>
+        <v>黄昕悦</v>
       </c>
       <c r="C22" t="str">
-        <v>学号：30</v>
+        <v>学号：6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>初二1班</v>
+        <v>初一1班</v>
       </c>
       <c r="B23" t="str">
-        <v>宫晟尧</v>
+        <v>唐心悦</v>
       </c>
       <c r="C23" t="str">
-        <v>学号：19</v>
+        <v>学号：10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>预备2班</v>
-      </c>
-      <c r="B24" t="str">
-        <v>黄沁怡</v>
-      </c>
-      <c r="C24" t="str">
-        <v>学号：4</v>
+        <v>星光璀璨奖</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>预备2班</v>
+        <v>预备3班</v>
       </c>
       <c r="B25" t="str">
-        <v>李子晗</v>
+        <v>王雪菲</v>
       </c>
       <c r="C25" t="str">
-        <v>学号：5</v>
+        <v>学号：11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>预备1班</v>
+        <v>预备4班</v>
       </c>
       <c r="B26" t="str">
-        <v>方舟童</v>
+        <v>蔡怡晨</v>
       </c>
       <c r="C26" t="str">
-        <v>学号：3</v>
+        <v>学号：1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>初二2班</v>
+        <v>预备1班</v>
       </c>
       <c r="B27" t="str">
-        <v>徐浩天</v>
+        <v>于景秋</v>
       </c>
       <c r="C27" t="str">
-        <v>学号：26</v>
+        <v>学号：29</v>
       </c>
     </row>
     <row r="28">
@@ -674,37 +668,43 @@
         <v>预备3班</v>
       </c>
       <c r="B28" t="str">
-        <v>包迟秋</v>
+        <v>边昊羽</v>
       </c>
       <c r="C28" t="str">
-        <v>学号：17</v>
+        <v>学号：1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>星光璀璨奖</v>
+        <v>预备4班</v>
+      </c>
+      <c r="B29" t="str">
+        <v>董亦潇</v>
+      </c>
+      <c r="C29" t="str">
+        <v>学号：2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>初二2班</v>
+        <v>初一2班</v>
       </c>
       <c r="B30" t="str">
-        <v>王智强</v>
+        <v>高胜蓝</v>
       </c>
       <c r="C30" t="str">
-        <v>学号：24</v>
+        <v>学号：2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>预备4班</v>
+        <v>初二1班</v>
       </c>
       <c r="B31" t="str">
-        <v>蔡怡晨</v>
+        <v>范翊萱</v>
       </c>
       <c r="C31" t="str">
-        <v>学号：1</v>
+        <v>学号：2</v>
       </c>
     </row>
     <row r="32">
@@ -712,21 +712,21 @@
         <v>初一2班</v>
       </c>
       <c r="B32" t="str">
-        <v>高胜蓝</v>
+        <v>李兆霖</v>
       </c>
       <c r="C32" t="str">
-        <v>学号：2</v>
+        <v>学号：28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>初二2班</v>
+        <v>初二1班</v>
       </c>
       <c r="B33" t="str">
-        <v>李思萱</v>
+        <v>林先鹏</v>
       </c>
       <c r="C33" t="str">
-        <v>学号：8</v>
+        <v>学号：22</v>
       </c>
     </row>
     <row r="34">
@@ -734,54 +734,54 @@
         <v>初一1班</v>
       </c>
       <c r="B34" t="str">
-        <v>刘子萌</v>
+        <v>窦文辉</v>
       </c>
       <c r="C34" t="str">
-        <v>学号：8</v>
+        <v>学号：20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>预备2班</v>
+        <v>预备4班</v>
       </c>
       <c r="B35" t="str">
-        <v>王欣月</v>
+        <v>赵紫辰</v>
       </c>
       <c r="C35" t="str">
-        <v>学号：10</v>
+        <v>学号：30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>预备3班</v>
+        <v>初一1班</v>
       </c>
       <c r="B36" t="str">
-        <v>邹锦润</v>
+        <v>靳小萱</v>
       </c>
       <c r="C36" t="str">
-        <v>学号：31</v>
+        <v>学号：4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>初二1班</v>
+        <v>初二2班</v>
       </c>
       <c r="B37" t="str">
-        <v>潘欣辰</v>
+        <v>龚启慧</v>
       </c>
       <c r="C37" t="str">
-        <v>学号：7</v>
+        <v>学号：1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>初二1班</v>
+        <v>预备1班</v>
       </c>
       <c r="B38" t="str">
-        <v>马欣语</v>
+        <v>蔡乐瑶</v>
       </c>
       <c r="C38" t="str">
-        <v>学号：6</v>
+        <v>学号：1</v>
       </c>
     </row>
     <row r="39">
@@ -789,202 +789,202 @@
         <v>预备4班</v>
       </c>
       <c r="B39" t="str">
-        <v>张宇皓</v>
+        <v>陈以恒</v>
       </c>
       <c r="C39" t="str">
-        <v>学号：29</v>
+        <v>学号：17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>初二2班</v>
+        <v>初一1班</v>
       </c>
       <c r="B40" t="str">
-        <v>薛茹澄</v>
+        <v>王睿康</v>
       </c>
       <c r="C40" t="str">
-        <v>学号：14</v>
+        <v>学号：28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>初一2班</v>
+        <v>初二1班</v>
       </c>
       <c r="B41" t="str">
-        <v>龚宸星</v>
+        <v>周乐宜</v>
       </c>
       <c r="C41" t="str">
-        <v>学号：3</v>
+        <v>学号：11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>预备2班</v>
+        <v>初二1班</v>
       </c>
       <c r="B42" t="str">
-        <v>何    奕</v>
+        <v>毕景行</v>
       </c>
       <c r="C42" t="str">
-        <v>学号：3</v>
+        <v>学号：13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>初二1班</v>
+        <v>预备2班</v>
       </c>
       <c r="B43" t="str">
-        <v>张丁心</v>
+        <v>张偲晨</v>
       </c>
       <c r="C43" t="str">
-        <v>学号：27</v>
+        <v>学号：15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>预备2班</v>
+        <v>初二2班</v>
       </c>
       <c r="B44" t="str">
-        <v>姚茗玥</v>
+        <v>施墨璞</v>
       </c>
       <c r="C44" t="str">
-        <v>学号：13</v>
+        <v>学号：23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>预备2班</v>
+        <v>初一2班</v>
       </c>
       <c r="B45" t="str">
-        <v>冯志尧</v>
+        <v>杨邦朔</v>
       </c>
       <c r="C45" t="str">
-        <v>学号：19</v>
+        <v>学号：35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>初一2班</v>
+        <v>初二1班</v>
       </c>
       <c r="B46" t="str">
-        <v>黄昕悦</v>
+        <v>单文玺</v>
       </c>
       <c r="C46" t="str">
-        <v>学号：6</v>
+        <v>学号：30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>预备3班</v>
+        <v>初二2班</v>
       </c>
       <c r="B47" t="str">
-        <v>张家鸣</v>
+        <v>刘谌阳</v>
       </c>
       <c r="C47" t="str">
-        <v>学号：30</v>
+        <v>学号：18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>初二2班</v>
+        <v>预备1班</v>
       </c>
       <c r="B48" t="str">
-        <v>徐睿</v>
+        <v>高    昕</v>
       </c>
       <c r="C48" t="str">
-        <v>学号：27</v>
+        <v>学号：4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>初一2班</v>
+        <v>预备4班</v>
       </c>
       <c r="B49" t="str">
-        <v>李米卿</v>
+        <v>陈钰泽</v>
       </c>
       <c r="C49" t="str">
-        <v>学号：26</v>
+        <v>学号：18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>预备3班</v>
-      </c>
-      <c r="B50" t="str">
-        <v>储亦玮</v>
-      </c>
-      <c r="C50" t="str">
-        <v>学号：19</v>
+        <v>真我风采奖</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>初一1班</v>
+        <v>初一2班</v>
       </c>
       <c r="B51" t="str">
-        <v>孙昊然</v>
+        <v>李慧文</v>
       </c>
       <c r="C51" t="str">
-        <v>学号：27</v>
+        <v>学号：7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>初一1班</v>
+        <v>预备1班</v>
       </c>
       <c r="B52" t="str">
-        <v>李娜</v>
+        <v>戴明远</v>
       </c>
       <c r="C52" t="str">
-        <v>学号：5</v>
+        <v>学号：19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>预备2班</v>
+        <v>预备4班</v>
       </c>
       <c r="B53" t="str">
-        <v>叶思源</v>
+        <v>王歆卉</v>
       </c>
       <c r="C53" t="str">
-        <v>学号：27</v>
+        <v>学号：12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>初一2班</v>
+        <v>预备4班</v>
       </c>
       <c r="B54" t="str">
-        <v>杨桢</v>
+        <v>钟欣玥</v>
       </c>
       <c r="C54" t="str">
-        <v>学号：13</v>
+        <v>学号：15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>真我风采奖</v>
+        <v>初二1班</v>
+      </c>
+      <c r="B55" t="str">
+        <v>单纯沛</v>
+      </c>
+      <c r="C55" t="str">
+        <v>学号：16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>预备3班</v>
+        <v>预备1班</v>
       </c>
       <c r="B56" t="str">
-        <v>詹昕睿</v>
+        <v>张子麟</v>
       </c>
       <c r="C56" t="str">
-        <v>学号：29</v>
+        <v>学号：31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>初一2班</v>
+        <v>初一1班</v>
       </c>
       <c r="B57" t="str">
-        <v>邓子宸</v>
+        <v>陈乔依</v>
       </c>
       <c r="C57" t="str">
-        <v>学号：24</v>
+        <v>学号：1</v>
       </c>
     </row>
     <row r="58">
@@ -992,10 +992,10 @@
         <v>初二1班</v>
       </c>
       <c r="B58" t="str">
-        <v>高新童</v>
+        <v>夏轩</v>
       </c>
       <c r="C58" t="str">
-        <v>学号：18</v>
+        <v>学号：26</v>
       </c>
     </row>
     <row r="59">
@@ -1003,32 +1003,32 @@
         <v>预备1班</v>
       </c>
       <c r="B59" t="str">
-        <v>严梓芸</v>
+        <v>段翊君</v>
       </c>
       <c r="C59" t="str">
-        <v>学号：15</v>
+        <v>学号：21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>初一2班</v>
+        <v>预备3班</v>
       </c>
       <c r="B60" t="str">
-        <v>曲佳一</v>
+        <v>王思涵</v>
       </c>
       <c r="C60" t="str">
-        <v>学号：9</v>
+        <v>学号：10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>初二2班</v>
+        <v>预备1班</v>
       </c>
       <c r="B61" t="str">
-        <v>袁宇轩</v>
+        <v>戴炳年</v>
       </c>
       <c r="C61" t="str">
-        <v>学号：28</v>
+        <v>学号：18</v>
       </c>
     </row>
     <row r="62">
@@ -1036,43 +1036,43 @@
         <v>初一2班</v>
       </c>
       <c r="B62" t="str">
-        <v>聂周皓</v>
+        <v>杨桢</v>
       </c>
       <c r="C62" t="str">
-        <v>学号：31</v>
+        <v>学号：13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>初二2班</v>
+        <v>初一2班</v>
       </c>
       <c r="B63" t="str">
-        <v>贾一楠</v>
+        <v>郑晓雨</v>
       </c>
       <c r="C63" t="str">
-        <v>学号：7</v>
+        <v>学号：18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>预备3班</v>
+        <v>预备2班</v>
       </c>
       <c r="B64" t="str">
-        <v>袁利惟</v>
+        <v>苏妍菲</v>
       </c>
       <c r="C64" t="str">
-        <v>学号：14</v>
+        <v>学号：7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>初一2班</v>
+        <v>预备1班</v>
       </c>
       <c r="B65" t="str">
-        <v>李慧文</v>
+        <v>颜重阳</v>
       </c>
       <c r="C65" t="str">
-        <v>学号：7</v>
+        <v>学号：28</v>
       </c>
     </row>
     <row r="66">
@@ -1080,65 +1080,65 @@
         <v>预备1班</v>
       </c>
       <c r="B66" t="str">
-        <v>戴致宇</v>
+        <v>奚曼玲</v>
       </c>
       <c r="C66" t="str">
-        <v>学号：20</v>
+        <v>学号：14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>初二2班</v>
+        <v>预备4班</v>
       </c>
       <c r="B67" t="str">
-        <v>刘煜辉</v>
+        <v>曹宇轩</v>
       </c>
       <c r="C67" t="str">
-        <v>学号：19</v>
+        <v>学号：16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>初二1班</v>
+        <v>初一1班</v>
       </c>
       <c r="B68" t="str">
-        <v>顾静宜</v>
+        <v>杨明瀚</v>
       </c>
       <c r="C68" t="str">
-        <v>学号：4</v>
+        <v>学号：31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>初一1班</v>
+        <v>预备3班</v>
       </c>
       <c r="B69" t="str">
-        <v>汤嘉呦</v>
+        <v>刘思成</v>
       </c>
       <c r="C69" t="str">
-        <v>学号：9</v>
+        <v>学号：23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>预备2班</v>
+        <v>初二1班</v>
       </c>
       <c r="B70" t="str">
-        <v>张梓屹</v>
+        <v>顾唯奕</v>
       </c>
       <c r="C70" t="str">
-        <v>学号：29</v>
+        <v>学号：20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>预备1班</v>
+        <v>预备3班</v>
       </c>
       <c r="B71" t="str">
-        <v>高    昕</v>
+        <v>沈禹涵</v>
       </c>
       <c r="C71" t="str">
-        <v>学号：4</v>
+        <v>学号：25</v>
       </c>
     </row>
     <row r="72">
@@ -1146,120 +1146,120 @@
         <v>初一1班</v>
       </c>
       <c r="B72" t="str">
-        <v>潘重宇</v>
+        <v>张安琪</v>
       </c>
       <c r="C72" t="str">
-        <v>学号：25</v>
+        <v>学号：16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>初一2班</v>
+        <v>初二1班</v>
       </c>
       <c r="B73" t="str">
-        <v>于海悦</v>
+        <v>顾静宜</v>
       </c>
       <c r="C73" t="str">
-        <v>学号：16</v>
+        <v>学号：4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>初一2班</v>
+        <v>预备2班</v>
       </c>
       <c r="B74" t="str">
-        <v>曾之熙</v>
+        <v>何    奕</v>
       </c>
       <c r="C74" t="str">
-        <v>学号：37</v>
+        <v>学号：3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>预备2班</v>
+        <v>初一1班</v>
       </c>
       <c r="B75" t="str">
-        <v>申珂睿</v>
+        <v>姜潘言</v>
       </c>
       <c r="C75" t="str">
-        <v>学号：6</v>
+        <v>学号：3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>预备1班</v>
+        <v>初一1班</v>
       </c>
       <c r="B76" t="str">
-        <v>秦梓瑜</v>
+        <v>吴若希</v>
       </c>
       <c r="C76" t="str">
-        <v>学号：9</v>
+        <v>学号：40</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>预备3班</v>
+        <v>初一1班</v>
       </c>
       <c r="B77" t="str">
-        <v>陈    柔</v>
+        <v>杨一诺</v>
       </c>
       <c r="C77" t="str">
-        <v>学号：4</v>
+        <v>学号：14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>初一2班</v>
+        <v>初一1班</v>
       </c>
       <c r="B78" t="str">
-        <v>焦雅坤</v>
+        <v>姚浩成</v>
       </c>
       <c r="C78" t="str">
-        <v>学号：42</v>
+        <v>学号：32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>初二1班</v>
+        <v>预备3班</v>
       </c>
       <c r="B79" t="str">
-        <v>单纯沛</v>
+        <v>蒋瑞希</v>
       </c>
       <c r="C79" t="str">
-        <v>学号：16</v>
+        <v>学号：6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>初一1班</v>
+        <v>初一2班</v>
       </c>
       <c r="B80" t="str">
-        <v>朱墨卿</v>
+        <v>魏毅</v>
       </c>
       <c r="C80" t="str">
-        <v>学号：38</v>
+        <v>学号：33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>初二1班</v>
+        <v>初一1班</v>
       </c>
       <c r="B81" t="str">
-        <v>付同骋</v>
+        <v>夏赢</v>
       </c>
       <c r="C81" t="str">
-        <v>学号：17</v>
+        <v>学号：41</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>初二2班</v>
+        <v>预备1班</v>
       </c>
       <c r="B82" t="str">
-        <v>龚启慧</v>
+        <v>沈佳琳</v>
       </c>
       <c r="C82" t="str">
-        <v>学号：1</v>
+        <v>学号：10</v>
       </c>
     </row>
     <row r="83">
@@ -1267,98 +1267,98 @@
         <v>预备2班</v>
       </c>
       <c r="B83" t="str">
-        <v>王智鸿</v>
+        <v>王星皓</v>
       </c>
       <c r="C83" t="str">
-        <v>学号：26</v>
+        <v>学号：25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>预备4班</v>
+        <v>初二1班</v>
       </c>
       <c r="B84" t="str">
-        <v>倪张晨</v>
+        <v>宫晟尧</v>
       </c>
       <c r="C84" t="str">
-        <v>学号：25</v>
+        <v>学号：19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>初一1班</v>
+        <v>初二2班</v>
       </c>
       <c r="B85" t="str">
-        <v>李玥瑶</v>
+        <v>熊镇正</v>
       </c>
       <c r="C85" t="str">
-        <v>学号：6</v>
+        <v>学号：25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>初一2班</v>
+        <v>初二1班</v>
       </c>
       <c r="B86" t="str">
-        <v>陆亦凡</v>
+        <v>王力贤</v>
       </c>
       <c r="C86" t="str">
-        <v>学号：8</v>
+        <v>学号：24</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>初一2班</v>
+        <v>预备3班</v>
       </c>
       <c r="B87" t="str">
-        <v>魏毅</v>
+        <v>曹邱宇</v>
       </c>
       <c r="C87" t="str">
-        <v>学号：33</v>
+        <v>学号：18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>预备3班</v>
+        <v>初一1班</v>
       </c>
       <c r="B88" t="str">
-        <v>蒋瑞希</v>
+        <v>汤嘉呦</v>
       </c>
       <c r="C88" t="str">
-        <v>学号：6</v>
+        <v>学号：9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>初二1班</v>
+        <v>初一1班</v>
       </c>
       <c r="B89" t="str">
-        <v>范翊萱</v>
+        <v>周丹凤</v>
       </c>
       <c r="C89" t="str">
-        <v>学号：2</v>
+        <v>学号：18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>预备2班</v>
+        <v>预备3班</v>
       </c>
       <c r="B90" t="str">
-        <v>许    优</v>
+        <v>蔡晓珏</v>
       </c>
       <c r="C90" t="str">
-        <v>学号：12</v>
+        <v>学号：2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>初一2班</v>
+        <v>初二2班</v>
       </c>
       <c r="B91" t="str">
-        <v>周诺</v>
+        <v>郑健坤</v>
       </c>
       <c r="C91" t="str">
-        <v>学号：40</v>
+        <v>学号：29</v>
       </c>
     </row>
     <row r="92">
@@ -1366,158 +1366,103 @@
         <v>初一2班</v>
       </c>
       <c r="B92" t="str">
-        <v>叶依轩</v>
+        <v>陆亦凡</v>
       </c>
       <c r="C92" t="str">
-        <v>学号：14</v>
+        <v>学号：8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>预备1班</v>
+        <v>初一2班</v>
       </c>
       <c r="B93" t="str">
-        <v>葛玖容</v>
+        <v>谭思雯</v>
       </c>
       <c r="C93" t="str">
-        <v>学号：22</v>
+        <v>学号：11</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>初一2班</v>
+        <v>初二2班</v>
       </c>
       <c r="B94" t="str">
-        <v>潘宇梵</v>
+        <v>薛茹澄</v>
       </c>
       <c r="C94" t="str">
-        <v>学号：32</v>
+        <v>学号：14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>初二1班</v>
+        <v>初二2班</v>
       </c>
       <c r="B95" t="str">
-        <v>毕景行</v>
+        <v>江欣妍</v>
       </c>
       <c r="C95" t="str">
-        <v>学号：13</v>
+        <v>学号：5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>初二1班</v>
+        <v>初一2班</v>
       </c>
       <c r="B96" t="str">
-        <v>陈柏廷</v>
+        <v>周诺</v>
       </c>
       <c r="C96" t="str">
-        <v>学号：15</v>
+        <v>学号：40</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>预备4班</v>
+        <v>初一2班</v>
       </c>
       <c r="B97" t="str">
-        <v>黄心怡</v>
+        <v>龚宸星</v>
       </c>
       <c r="C97" t="str">
-        <v>学号：5</v>
+        <v>学号：3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>预备4班</v>
+        <v>初一1班</v>
       </c>
       <c r="B98" t="str">
-        <v>李泽宸</v>
+        <v>吴悦辰</v>
       </c>
       <c r="C98" t="str">
-        <v>学号：22</v>
+        <v>学号：12</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>预备2班</v>
+        <v>初一1班</v>
       </c>
       <c r="B99" t="str">
-        <v>王欣贝</v>
+        <v>张宸</v>
       </c>
       <c r="C99" t="str">
-        <v>学号：9</v>
+        <v>学号：34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>预备3班</v>
+        <v>初一2班</v>
       </c>
       <c r="B100" t="str">
-        <v>吴芳菲</v>
+        <v>丁佳仪</v>
       </c>
       <c r="C100" t="str">
-        <v>学号：13</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>预备4班</v>
-      </c>
-      <c r="B101" t="str">
-        <v>夏浩飏</v>
-      </c>
-      <c r="C101" t="str">
-        <v>学号：27</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>初二1班</v>
-      </c>
-      <c r="B102" t="str">
-        <v>单文玺</v>
-      </c>
-      <c r="C102" t="str">
-        <v>学号：30</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>预备3班</v>
-      </c>
-      <c r="B103" t="str">
-        <v>俞谷璋</v>
-      </c>
-      <c r="C103" t="str">
-        <v>学号：28</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>初二1班</v>
-      </c>
-      <c r="B104" t="str">
-        <v>黄纬达</v>
-      </c>
-      <c r="C104" t="str">
-        <v>学号：21</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>预备3班</v>
-      </c>
-      <c r="B105" t="str">
-        <v>钱亿凡</v>
-      </c>
-      <c r="C105" t="str">
-        <v>学号：24</v>
+        <v>学号：1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C105"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C100"/>
   </ignoredErrors>
 </worksheet>
 </file>